--- a/fraudthree/branch_xujun/config/business/Config.xlsx
+++ b/fraudthree/branch_xujun/config/business/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="系统桌房间列表配置|roomtable" sheetId="1" r:id="rId1"/>
@@ -46,16 +46,16 @@
     <t>server/client</t>
   </si>
   <si>
-    <t>4:1:1:2:9:352:2000:初级场:300:15:-1:10:0:30:2:3:15:5</t>
-  </si>
-  <si>
-    <t>4:1:2:2:9:3520:2000:高级场:300:15:-1:100:0:30:2:3:15:5</t>
-  </si>
-  <si>
-    <t>4:1:3:2:9:35200:2000:大师场:300:15:-1:1000:0:30:2:3:15:5</t>
-  </si>
-  <si>
-    <t>4:1:4:2:9:352000:2000:精英场:300:15:-1:2000:0:30:2:3:15:5</t>
+    <t>1:1:1:2:9:200:2000:初级场:300:15:-1:400:0:30:2:3:15:5</t>
+  </si>
+  <si>
+    <t>1:1:2:2:9:2000:2000:高级场:300:15:-1:1600:0:30:2:3:15:5</t>
+  </si>
+  <si>
+    <t>1:1:3:2:9:20000:2000:精英场:300:15:-1:1600:0:30:2:3:15:5</t>
+  </si>
+  <si>
+    <t>1:1:4:2:9:200000:2000:大师场:300:15:-1:3200:0:30:2:3:15:5</t>
   </si>
   <si>
     <t>商品id</t>
@@ -139,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,9 +159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +190,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,113 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,163 +330,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +522,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,26 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,9 +592,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,136 +633,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
